--- a/doc/指令集V1.xlsx
+++ b/doc/指令集V1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gnohz-my.sharepoint.com/personal/gnohz_gnohz_onmicrosoft_com/Documents/doc/thu/graduate/2023autumn/Exploration Brain-inspired/芯片架构实验2023/指令集设计/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chip_simulator\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="252" documentId="11_F25DC773A252ABDACC1048A2D1197B885BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA13FCD9-D611-4436-9A0D-BD7259F2745D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30C6C47-7E3C-494A-B9DB-9AE9794EEFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>左矩阵基地址</t>
   </si>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>神经元个数（in 16B）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Softmax/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起始地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体长度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -307,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -317,34 +329,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -359,23 +368,25 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -658,27 +669,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DY10"/>
+  <dimension ref="A1:DY11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AZ2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="CP21" sqref="CP21"/>
+      <selection pane="bottomRight" activeCell="U2" sqref="U2:AJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="10" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="98" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="3.5546875" customWidth="1"/>
-    <col min="100" max="100" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="101" max="116" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="4.5546875" customWidth="1"/>
-    <col min="118" max="129" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="10" width="2.9140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="98" width="3.58203125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="3.58203125" customWidth="1"/>
+    <col min="100" max="100" width="3.58203125" bestFit="1" customWidth="1"/>
+    <col min="101" max="116" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="4.58203125" customWidth="1"/>
+    <col min="118" max="129" width="4.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:129" s="3" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:129" s="3" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>0</v>
       </c>
@@ -1067,1031 +1078,1096 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:129" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:129" s="3" customFormat="1" ht="11.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
+      <c r="AH2" s="24"/>
+      <c r="AI2" s="24"/>
+      <c r="AJ2" s="24"/>
+      <c r="CW2" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="CX2" s="24"/>
+      <c r="CY2" s="24"/>
+      <c r="CZ2" s="24"/>
+      <c r="DA2" s="24"/>
+      <c r="DB2" s="24"/>
+      <c r="DC2" s="24"/>
+      <c r="DD2" s="24"/>
+      <c r="DE2" s="24"/>
+      <c r="DF2" s="24"/>
+      <c r="DG2" s="24"/>
+      <c r="DH2" s="24"/>
+      <c r="DI2" s="24"/>
+      <c r="DJ2" s="24"/>
+      <c r="DK2" s="24"/>
+      <c r="DL2" s="24"/>
+    </row>
+    <row r="3" spans="1:129" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="7" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="9" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9"/>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9" t="s">
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
-      <c r="AS2" s="9"/>
-      <c r="AT2" s="9"/>
-      <c r="AU2" s="9"/>
-      <c r="AV2" s="9"/>
-      <c r="AW2" s="9"/>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="7" t="s">
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="12"/>
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+      <c r="AW3" s="12"/>
+      <c r="AX3" s="12"/>
+      <c r="AY3" s="12"/>
+      <c r="AZ3" s="12"/>
+      <c r="BA3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="7"/>
-      <c r="BG2" s="7"/>
-      <c r="BH2" s="7"/>
-      <c r="BI2" s="7"/>
-      <c r="BJ2" s="7"/>
-      <c r="BK2" s="7"/>
-      <c r="BL2" s="7"/>
-      <c r="BM2" s="7"/>
-      <c r="BN2" s="7"/>
-      <c r="BO2" s="7"/>
-      <c r="BP2" s="7"/>
-      <c r="BQ2" s="9" t="s">
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="9"/>
+      <c r="BK3" s="9"/>
+      <c r="BL3" s="9"/>
+      <c r="BM3" s="9"/>
+      <c r="BN3" s="9"/>
+      <c r="BO3" s="9"/>
+      <c r="BP3" s="9"/>
+      <c r="BQ3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="BR2" s="9"/>
-      <c r="BS2" s="9"/>
-      <c r="BT2" s="9"/>
-      <c r="BU2" s="9"/>
-      <c r="BV2" s="9"/>
-      <c r="BW2" s="9"/>
-      <c r="BX2" s="9"/>
-      <c r="BY2" s="9"/>
-      <c r="BZ2" s="9"/>
-      <c r="CA2" s="9"/>
-      <c r="CB2" s="9"/>
-      <c r="CC2" s="9"/>
-      <c r="CD2" s="9"/>
-      <c r="CE2" s="9"/>
-      <c r="CF2" s="9"/>
-      <c r="CG2" s="7" t="s">
+      <c r="BR3" s="12"/>
+      <c r="BS3" s="12"/>
+      <c r="BT3" s="12"/>
+      <c r="BU3" s="12"/>
+      <c r="BV3" s="12"/>
+      <c r="BW3" s="12"/>
+      <c r="BX3" s="12"/>
+      <c r="BY3" s="12"/>
+      <c r="BZ3" s="12"/>
+      <c r="CA3" s="12"/>
+      <c r="CB3" s="12"/>
+      <c r="CC3" s="12"/>
+      <c r="CD3" s="12"/>
+      <c r="CE3" s="12"/>
+      <c r="CF3" s="12"/>
+      <c r="CG3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="CH2" s="7"/>
-      <c r="CI2" s="7"/>
-      <c r="CJ2" s="7"/>
-      <c r="CK2" s="7"/>
-      <c r="CL2" s="7"/>
-      <c r="CM2" s="7"/>
-      <c r="CN2" s="7"/>
-      <c r="CO2" s="7"/>
-      <c r="CP2" s="7"/>
-      <c r="CQ2" s="7"/>
-      <c r="CR2" s="7"/>
-      <c r="CS2" s="7"/>
-      <c r="CT2" s="7"/>
-      <c r="CU2" s="7"/>
-      <c r="CV2" s="7"/>
-      <c r="CW2" s="7" t="s">
+      <c r="CH3" s="9"/>
+      <c r="CI3" s="9"/>
+      <c r="CJ3" s="9"/>
+      <c r="CK3" s="9"/>
+      <c r="CL3" s="9"/>
+      <c r="CM3" s="9"/>
+      <c r="CN3" s="9"/>
+      <c r="CO3" s="9"/>
+      <c r="CP3" s="9"/>
+      <c r="CQ3" s="9"/>
+      <c r="CR3" s="9"/>
+      <c r="CS3" s="9"/>
+      <c r="CT3" s="9"/>
+      <c r="CU3" s="9"/>
+      <c r="CV3" s="9"/>
+      <c r="CW3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="CX2" s="7"/>
-      <c r="CY2" s="7"/>
-      <c r="CZ2" s="7"/>
-      <c r="DA2" s="7"/>
-      <c r="DB2" s="7"/>
-      <c r="DC2" s="7"/>
-      <c r="DD2" s="7"/>
-      <c r="DE2" s="7"/>
-      <c r="DF2" s="7"/>
-      <c r="DG2" s="7"/>
-      <c r="DH2" s="7"/>
-      <c r="DI2" s="7"/>
-      <c r="DJ2" s="7"/>
-      <c r="DK2" s="7"/>
-      <c r="DL2" s="7"/>
-      <c r="DM2" s="21"/>
-      <c r="DN2" s="22"/>
-      <c r="DO2" s="22"/>
+      <c r="CX3" s="9"/>
+      <c r="CY3" s="9"/>
+      <c r="CZ3" s="9"/>
+      <c r="DA3" s="9"/>
+      <c r="DB3" s="9"/>
+      <c r="DC3" s="9"/>
+      <c r="DD3" s="9"/>
+      <c r="DE3" s="9"/>
+      <c r="DF3" s="9"/>
+      <c r="DG3" s="9"/>
+      <c r="DH3" s="9"/>
+      <c r="DI3" s="9"/>
+      <c r="DJ3" s="9"/>
+      <c r="DK3" s="9"/>
+      <c r="DL3" s="9"/>
+      <c r="DN3" s="11"/>
+      <c r="DO3" s="11"/>
     </row>
-    <row r="3" spans="1:129" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+    <row r="4" spans="1:129" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="7" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="9" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9"/>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="16" t="s">
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AL3" s="17"/>
-      <c r="AM3" s="17"/>
-      <c r="AN3" s="17"/>
-      <c r="AO3" s="17"/>
-      <c r="AP3" s="17"/>
-      <c r="AQ3" s="17"/>
-      <c r="AR3" s="17"/>
-      <c r="AS3" s="17"/>
-      <c r="AT3" s="17"/>
-      <c r="AU3" s="17"/>
-      <c r="AV3" s="17"/>
-      <c r="AW3" s="17"/>
-      <c r="AX3" s="17"/>
-      <c r="AY3" s="17"/>
-      <c r="AZ3" s="18"/>
-      <c r="BA3" s="19" t="s">
+      <c r="AL4" s="16"/>
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="16"/>
+      <c r="AX4" s="16"/>
+      <c r="AY4" s="16"/>
+      <c r="AZ4" s="17"/>
+      <c r="BA4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="BB3" s="19"/>
-      <c r="BC3" s="19"/>
-      <c r="BD3" s="19"/>
-      <c r="BE3" s="19"/>
-      <c r="BF3" s="19"/>
-      <c r="BG3" s="19"/>
-      <c r="BH3" s="19"/>
-      <c r="BI3" s="19"/>
-      <c r="BJ3" s="19"/>
-      <c r="BK3" s="19"/>
-      <c r="BL3" s="19"/>
-      <c r="BM3" s="19"/>
-      <c r="BN3" s="19"/>
-      <c r="BO3" s="19"/>
-      <c r="BP3" s="19"/>
-      <c r="BQ3" s="19" t="s">
+      <c r="BB4" s="13"/>
+      <c r="BC4" s="13"/>
+      <c r="BD4" s="13"/>
+      <c r="BE4" s="13"/>
+      <c r="BF4" s="13"/>
+      <c r="BG4" s="13"/>
+      <c r="BH4" s="13"/>
+      <c r="BI4" s="13"/>
+      <c r="BJ4" s="13"/>
+      <c r="BK4" s="13"/>
+      <c r="BL4" s="13"/>
+      <c r="BM4" s="13"/>
+      <c r="BN4" s="13"/>
+      <c r="BO4" s="13"/>
+      <c r="BP4" s="13"/>
+      <c r="BQ4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="BR3" s="19"/>
-      <c r="BS3" s="19"/>
-      <c r="BT3" s="19"/>
-      <c r="BU3" s="19"/>
-      <c r="BV3" s="19"/>
-      <c r="BW3" s="19"/>
-      <c r="BX3" s="19"/>
-      <c r="BY3" s="19"/>
-      <c r="BZ3" s="19"/>
-      <c r="CA3" s="19"/>
-      <c r="CB3" s="19"/>
-      <c r="CC3" s="19"/>
-      <c r="CD3" s="19"/>
-      <c r="CE3" s="19"/>
-      <c r="CF3" s="19"/>
-      <c r="CG3" s="7" t="s">
+      <c r="BR4" s="13"/>
+      <c r="BS4" s="13"/>
+      <c r="BT4" s="13"/>
+      <c r="BU4" s="13"/>
+      <c r="BV4" s="13"/>
+      <c r="BW4" s="13"/>
+      <c r="BX4" s="13"/>
+      <c r="BY4" s="13"/>
+      <c r="BZ4" s="13"/>
+      <c r="CA4" s="13"/>
+      <c r="CB4" s="13"/>
+      <c r="CC4" s="13"/>
+      <c r="CD4" s="13"/>
+      <c r="CE4" s="13"/>
+      <c r="CF4" s="13"/>
+      <c r="CG4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="CH3" s="7"/>
-      <c r="CI3" s="7"/>
-      <c r="CJ3" s="7"/>
-      <c r="CK3" s="7"/>
-      <c r="CL3" s="7"/>
-      <c r="CM3" s="7"/>
-      <c r="CN3" s="7"/>
-      <c r="CO3" s="7"/>
-      <c r="CP3" s="7"/>
-      <c r="CQ3" s="7"/>
-      <c r="CR3" s="7"/>
-      <c r="CS3" s="7"/>
-      <c r="CT3" s="7"/>
-      <c r="CU3" s="7"/>
-      <c r="CV3" s="7"/>
-      <c r="CW3" s="7" t="s">
+      <c r="CH4" s="9"/>
+      <c r="CI4" s="9"/>
+      <c r="CJ4" s="9"/>
+      <c r="CK4" s="9"/>
+      <c r="CL4" s="9"/>
+      <c r="CM4" s="9"/>
+      <c r="CN4" s="9"/>
+      <c r="CO4" s="9"/>
+      <c r="CP4" s="9"/>
+      <c r="CQ4" s="9"/>
+      <c r="CR4" s="9"/>
+      <c r="CS4" s="9"/>
+      <c r="CT4" s="9"/>
+      <c r="CU4" s="9"/>
+      <c r="CV4" s="9"/>
+      <c r="CW4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="CX3" s="7"/>
-      <c r="CY3" s="7"/>
-      <c r="CZ3" s="7"/>
-      <c r="DA3" s="7"/>
-      <c r="DB3" s="7"/>
-      <c r="DC3" s="7"/>
-      <c r="DD3" s="7"/>
-      <c r="DE3" s="7"/>
-      <c r="DF3" s="7"/>
-      <c r="DG3" s="7"/>
-      <c r="DH3" s="7"/>
-      <c r="DI3" s="7"/>
-      <c r="DJ3" s="7"/>
-      <c r="DK3" s="7"/>
-      <c r="DL3" s="7"/>
-      <c r="DN3" s="14"/>
-      <c r="DO3" s="14"/>
+      <c r="CX4" s="9"/>
+      <c r="CY4" s="9"/>
+      <c r="CZ4" s="9"/>
+      <c r="DA4" s="9"/>
+      <c r="DB4" s="9"/>
+      <c r="DC4" s="9"/>
+      <c r="DD4" s="9"/>
+      <c r="DE4" s="9"/>
+      <c r="DF4" s="9"/>
+      <c r="DG4" s="9"/>
+      <c r="DH4" s="9"/>
+      <c r="DI4" s="9"/>
+      <c r="DJ4" s="9"/>
+      <c r="DK4" s="9"/>
+      <c r="DL4" s="9"/>
+      <c r="DN4" s="11"/>
+      <c r="DO4" s="11"/>
     </row>
-    <row r="4" spans="1:129" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:129" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="12"/>
-      <c r="AW4" s="12"/>
-      <c r="AX4" s="12"/>
-      <c r="AY4" s="12"/>
-      <c r="AZ4" s="13"/>
-      <c r="BA4" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="BB4" s="19"/>
-      <c r="BC4" s="19"/>
-      <c r="BD4" s="19"/>
-      <c r="BE4" s="19"/>
-      <c r="BF4" s="19"/>
-      <c r="BG4" s="19"/>
-      <c r="BH4" s="19"/>
-      <c r="BI4" s="19"/>
-      <c r="BJ4" s="19"/>
-      <c r="BK4" s="19"/>
-      <c r="BL4" s="19"/>
-      <c r="BM4" s="19"/>
-      <c r="BN4" s="19"/>
-      <c r="BO4" s="19"/>
-      <c r="BP4" s="19"/>
-      <c r="BQ4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="BR4" s="5"/>
-      <c r="BS4" s="5"/>
-      <c r="BT4" s="5"/>
-      <c r="BU4" s="5"/>
-      <c r="BV4" s="5"/>
-      <c r="BW4" s="5"/>
-      <c r="BX4" s="5"/>
-      <c r="BY4" s="5"/>
-      <c r="BZ4" s="5"/>
-      <c r="CA4" s="5"/>
-      <c r="CB4" s="5"/>
-      <c r="CC4" s="5"/>
-      <c r="CD4" s="5"/>
-      <c r="CE4" s="5"/>
-      <c r="CF4" s="5"/>
-      <c r="CG4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="CH4" s="5"/>
-      <c r="CI4" s="5"/>
-      <c r="CJ4" s="5"/>
-      <c r="CK4" s="5"/>
-      <c r="CL4" s="5"/>
-      <c r="CM4" s="5"/>
-      <c r="CN4" s="5"/>
-      <c r="CO4" s="5"/>
-      <c r="CP4" s="5"/>
-      <c r="CQ4" s="5"/>
-      <c r="CR4" s="5"/>
-      <c r="CS4" s="5"/>
-      <c r="CT4" s="5"/>
-      <c r="CU4" s="5"/>
-      <c r="CV4" s="5"/>
-      <c r="CW4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="CX4" s="7"/>
-      <c r="CY4" s="7"/>
-      <c r="CZ4" s="7"/>
-      <c r="DA4" s="7"/>
-      <c r="DB4" s="7"/>
-      <c r="DC4" s="7"/>
-      <c r="DD4" s="7"/>
-      <c r="DE4" s="7"/>
-      <c r="DF4" s="7"/>
-      <c r="DG4" s="7"/>
-      <c r="DH4" s="7"/>
-      <c r="DI4" s="7"/>
-      <c r="DJ4" s="7"/>
-      <c r="DK4" s="7"/>
-      <c r="DL4" s="7"/>
-      <c r="DM4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="DN4" s="1"/>
-      <c r="DO4" s="1"/>
-    </row>
-    <row r="5" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="V5" s="9"/>
-      <c r="W5" s="9"/>
-      <c r="X5" s="9"/>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="9"/>
-      <c r="AG5" s="9"/>
-      <c r="AH5" s="9"/>
-      <c r="AI5" s="9"/>
-      <c r="AJ5" s="9"/>
-      <c r="AK5" s="11" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
-      <c r="AN5" s="12"/>
-      <c r="AO5" s="12"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="12"/>
-      <c r="AR5" s="12"/>
-      <c r="AS5" s="12"/>
-      <c r="AT5" s="12"/>
-      <c r="AU5" s="12"/>
-      <c r="AV5" s="12"/>
-      <c r="AW5" s="12"/>
-      <c r="AX5" s="12"/>
-      <c r="AY5" s="12"/>
-      <c r="AZ5" s="13"/>
-      <c r="BA5" s="5" t="s">
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="19"/>
+      <c r="AN5" s="19"/>
+      <c r="AO5" s="19"/>
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19"/>
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="19"/>
+      <c r="AT5" s="19"/>
+      <c r="AU5" s="19"/>
+      <c r="AV5" s="19"/>
+      <c r="AW5" s="19"/>
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19"/>
+      <c r="AZ5" s="20"/>
+      <c r="BA5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB5" s="13"/>
+      <c r="BC5" s="13"/>
+      <c r="BD5" s="13"/>
+      <c r="BE5" s="13"/>
+      <c r="BF5" s="13"/>
+      <c r="BG5" s="13"/>
+      <c r="BH5" s="13"/>
+      <c r="BI5" s="13"/>
+      <c r="BJ5" s="13"/>
+      <c r="BK5" s="13"/>
+      <c r="BL5" s="13"/>
+      <c r="BM5" s="13"/>
+      <c r="BN5" s="13"/>
+      <c r="BO5" s="13"/>
+      <c r="BP5" s="13"/>
+      <c r="BQ5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="BB5" s="5"/>
-      <c r="BC5" s="5"/>
-      <c r="BD5" s="5"/>
-      <c r="BE5" s="5"/>
-      <c r="BF5" s="5"/>
-      <c r="BG5" s="5"/>
-      <c r="BH5" s="5"/>
-      <c r="BI5" s="5"/>
-      <c r="BJ5" s="5"/>
-      <c r="BK5" s="5"/>
-      <c r="BL5" s="5"/>
-      <c r="BM5" s="5"/>
-      <c r="BN5" s="5"/>
-      <c r="BO5" s="5"/>
-      <c r="BP5" s="5"/>
-      <c r="BQ5" s="5" t="s">
+      <c r="BR5" s="21"/>
+      <c r="BS5" s="21"/>
+      <c r="BT5" s="21"/>
+      <c r="BU5" s="21"/>
+      <c r="BV5" s="21"/>
+      <c r="BW5" s="21"/>
+      <c r="BX5" s="21"/>
+      <c r="BY5" s="21"/>
+      <c r="BZ5" s="21"/>
+      <c r="CA5" s="21"/>
+      <c r="CB5" s="21"/>
+      <c r="CC5" s="21"/>
+      <c r="CD5" s="21"/>
+      <c r="CE5" s="21"/>
+      <c r="CF5" s="21"/>
+      <c r="CG5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="BR5" s="5"/>
-      <c r="BS5" s="5"/>
-      <c r="BT5" s="5"/>
-      <c r="BU5" s="5"/>
-      <c r="BV5" s="5"/>
-      <c r="BW5" s="5"/>
-      <c r="BX5" s="5"/>
-      <c r="BY5" s="5"/>
-      <c r="BZ5" s="5"/>
-      <c r="CA5" s="5"/>
-      <c r="CB5" s="5"/>
-      <c r="CC5" s="5"/>
-      <c r="CD5" s="5"/>
-      <c r="CE5" s="5"/>
-      <c r="CF5" s="5"/>
-      <c r="CG5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="CH5" s="10"/>
-      <c r="CI5" s="10"/>
-      <c r="CJ5" s="10"/>
-      <c r="CK5" s="10"/>
-      <c r="CL5" s="10"/>
-      <c r="CM5" s="10"/>
-      <c r="CN5" s="10"/>
-      <c r="CO5" s="10"/>
-      <c r="CP5" s="10"/>
-      <c r="CQ5" s="10"/>
-      <c r="CR5" s="10"/>
-      <c r="CS5" s="10"/>
-      <c r="CT5" s="10"/>
-      <c r="CU5" s="10"/>
-      <c r="CV5" s="10"/>
-      <c r="CW5" s="10"/>
-      <c r="CX5" s="10"/>
-      <c r="CY5" s="10"/>
-      <c r="CZ5" s="10"/>
-      <c r="DA5" s="10"/>
-      <c r="DB5" s="10"/>
-      <c r="DC5" s="10"/>
-      <c r="DD5" s="10"/>
-      <c r="DE5" s="10"/>
-      <c r="DF5" s="10"/>
-      <c r="DG5" s="10"/>
-      <c r="DH5" s="10"/>
-      <c r="DI5" s="10"/>
-      <c r="DJ5" s="10"/>
-      <c r="DK5" s="10"/>
-      <c r="DL5" s="10"/>
+      <c r="CH5" s="21"/>
+      <c r="CI5" s="21"/>
+      <c r="CJ5" s="21"/>
+      <c r="CK5" s="21"/>
+      <c r="CL5" s="21"/>
+      <c r="CM5" s="21"/>
+      <c r="CN5" s="21"/>
+      <c r="CO5" s="21"/>
+      <c r="CP5" s="21"/>
+      <c r="CQ5" s="21"/>
+      <c r="CR5" s="21"/>
+      <c r="CS5" s="21"/>
+      <c r="CT5" s="21"/>
+      <c r="CU5" s="21"/>
+      <c r="CV5" s="21"/>
+      <c r="CW5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="CX5" s="9"/>
+      <c r="CY5" s="9"/>
+      <c r="CZ5" s="9"/>
+      <c r="DA5" s="9"/>
+      <c r="DB5" s="9"/>
+      <c r="DC5" s="9"/>
+      <c r="DD5" s="9"/>
+      <c r="DE5" s="9"/>
+      <c r="DF5" s="9"/>
+      <c r="DG5" s="9"/>
+      <c r="DH5" s="9"/>
+      <c r="DI5" s="9"/>
+      <c r="DJ5" s="9"/>
+      <c r="DK5" s="9"/>
+      <c r="DL5" s="9"/>
+      <c r="DM5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="DN5" s="1"/>
+      <c r="DO5" s="1"/>
     </row>
-    <row r="6" spans="1:129" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:129" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="9" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="9"/>
-      <c r="AD6" s="9"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
-      <c r="AG6" s="9"/>
-      <c r="AH6" s="9"/>
-      <c r="AI6" s="9"/>
-      <c r="AJ6" s="9"/>
-      <c r="AK6" s="11" t="s">
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12"/>
-      <c r="AU6" s="12"/>
-      <c r="AV6" s="12"/>
-      <c r="AW6" s="12"/>
-      <c r="AX6" s="12"/>
-      <c r="AY6" s="12"/>
-      <c r="AZ6" s="13"/>
-      <c r="BA6" s="5" t="s">
+      <c r="AL6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19"/>
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="AY6" s="19"/>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="BB6" s="5"/>
-      <c r="BC6" s="5"/>
-      <c r="BD6" s="5"/>
-      <c r="BE6" s="5"/>
-      <c r="BF6" s="5"/>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
-      <c r="BJ6" s="5"/>
-      <c r="BK6" s="5"/>
-      <c r="BL6" s="5"/>
-      <c r="BM6" s="5"/>
-      <c r="BN6" s="5"/>
-      <c r="BO6" s="5"/>
-      <c r="BP6" s="5"/>
-      <c r="BQ6" s="5" t="s">
+      <c r="BB6" s="21"/>
+      <c r="BC6" s="21"/>
+      <c r="BD6" s="21"/>
+      <c r="BE6" s="21"/>
+      <c r="BF6" s="21"/>
+      <c r="BG6" s="21"/>
+      <c r="BH6" s="21"/>
+      <c r="BI6" s="21"/>
+      <c r="BJ6" s="21"/>
+      <c r="BK6" s="21"/>
+      <c r="BL6" s="21"/>
+      <c r="BM6" s="21"/>
+      <c r="BN6" s="21"/>
+      <c r="BO6" s="21"/>
+      <c r="BP6" s="21"/>
+      <c r="BQ6" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="BR6" s="5"/>
-      <c r="BS6" s="5"/>
-      <c r="BT6" s="5"/>
-      <c r="BU6" s="5"/>
-      <c r="BV6" s="5"/>
-      <c r="BW6" s="5"/>
-      <c r="BX6" s="5"/>
-      <c r="BY6" s="5"/>
-      <c r="BZ6" s="5"/>
-      <c r="CA6" s="5"/>
-      <c r="CB6" s="5"/>
-      <c r="CC6" s="5"/>
-      <c r="CD6" s="5"/>
-      <c r="CE6" s="5"/>
-      <c r="CF6" s="5"/>
-      <c r="CG6" s="10" t="s">
+      <c r="BR6" s="21"/>
+      <c r="BS6" s="21"/>
+      <c r="BT6" s="21"/>
+      <c r="BU6" s="21"/>
+      <c r="BV6" s="21"/>
+      <c r="BW6" s="21"/>
+      <c r="BX6" s="21"/>
+      <c r="BY6" s="21"/>
+      <c r="BZ6" s="21"/>
+      <c r="CA6" s="21"/>
+      <c r="CB6" s="21"/>
+      <c r="CC6" s="21"/>
+      <c r="CD6" s="21"/>
+      <c r="CE6" s="21"/>
+      <c r="CF6" s="21"/>
+      <c r="CG6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="CH6" s="10"/>
-      <c r="CI6" s="10"/>
-      <c r="CJ6" s="10"/>
-      <c r="CK6" s="10"/>
-      <c r="CL6" s="10"/>
-      <c r="CM6" s="10"/>
-      <c r="CN6" s="10"/>
-      <c r="CO6" s="10"/>
-      <c r="CP6" s="10"/>
-      <c r="CQ6" s="10"/>
-      <c r="CR6" s="10"/>
-      <c r="CS6" s="10"/>
-      <c r="CT6" s="10"/>
-      <c r="CU6" s="10"/>
-      <c r="CV6" s="10"/>
-      <c r="CW6" s="10"/>
-      <c r="CX6" s="10"/>
-      <c r="CY6" s="10"/>
-      <c r="CZ6" s="10"/>
-      <c r="DA6" s="10"/>
-      <c r="DB6" s="10"/>
-      <c r="DC6" s="10"/>
-      <c r="DD6" s="10"/>
-      <c r="DE6" s="10"/>
-      <c r="DF6" s="10"/>
-      <c r="DG6" s="10"/>
-      <c r="DH6" s="10"/>
-      <c r="DI6" s="10"/>
-      <c r="DJ6" s="10"/>
-      <c r="DK6" s="10"/>
-      <c r="DL6" s="10"/>
+      <c r="CH6" s="23"/>
+      <c r="CI6" s="23"/>
+      <c r="CJ6" s="23"/>
+      <c r="CK6" s="23"/>
+      <c r="CL6" s="23"/>
+      <c r="CM6" s="23"/>
+      <c r="CN6" s="23"/>
+      <c r="CO6" s="23"/>
+      <c r="CP6" s="23"/>
+      <c r="CQ6" s="23"/>
+      <c r="CR6" s="23"/>
+      <c r="CS6" s="23"/>
+      <c r="CT6" s="23"/>
+      <c r="CU6" s="23"/>
+      <c r="CV6" s="23"/>
+      <c r="CW6" s="23"/>
+      <c r="CX6" s="23"/>
+      <c r="CY6" s="23"/>
+      <c r="CZ6" s="23"/>
+      <c r="DA6" s="23"/>
+      <c r="DB6" s="23"/>
+      <c r="DC6" s="23"/>
+      <c r="DD6" s="23"/>
+      <c r="DE6" s="23"/>
+      <c r="DF6" s="23"/>
+      <c r="DG6" s="23"/>
+      <c r="DH6" s="23"/>
+      <c r="DI6" s="23"/>
+      <c r="DJ6" s="23"/>
+      <c r="DK6" s="23"/>
+      <c r="DL6" s="23"/>
     </row>
-    <row r="7" spans="1:129" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:129" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL7" s="19"/>
+      <c r="AM7" s="19"/>
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19"/>
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19"/>
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
+      <c r="AY7" s="19"/>
+      <c r="AZ7" s="20"/>
+      <c r="BA7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="BB7" s="21"/>
+      <c r="BC7" s="21"/>
+      <c r="BD7" s="21"/>
+      <c r="BE7" s="21"/>
+      <c r="BF7" s="21"/>
+      <c r="BG7" s="21"/>
+      <c r="BH7" s="21"/>
+      <c r="BI7" s="21"/>
+      <c r="BJ7" s="21"/>
+      <c r="BK7" s="21"/>
+      <c r="BL7" s="21"/>
+      <c r="BM7" s="21"/>
+      <c r="BN7" s="21"/>
+      <c r="BO7" s="21"/>
+      <c r="BP7" s="21"/>
+      <c r="BQ7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="BR7" s="21"/>
+      <c r="BS7" s="21"/>
+      <c r="BT7" s="21"/>
+      <c r="BU7" s="21"/>
+      <c r="BV7" s="21"/>
+      <c r="BW7" s="21"/>
+      <c r="BX7" s="21"/>
+      <c r="BY7" s="21"/>
+      <c r="BZ7" s="21"/>
+      <c r="CA7" s="21"/>
+      <c r="CB7" s="21"/>
+      <c r="CC7" s="21"/>
+      <c r="CD7" s="21"/>
+      <c r="CE7" s="21"/>
+      <c r="CF7" s="21"/>
+      <c r="CG7" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="CH7" s="23"/>
+      <c r="CI7" s="23"/>
+      <c r="CJ7" s="23"/>
+      <c r="CK7" s="23"/>
+      <c r="CL7" s="23"/>
+      <c r="CM7" s="23"/>
+      <c r="CN7" s="23"/>
+      <c r="CO7" s="23"/>
+      <c r="CP7" s="23"/>
+      <c r="CQ7" s="23"/>
+      <c r="CR7" s="23"/>
+      <c r="CS7" s="23"/>
+      <c r="CT7" s="23"/>
+      <c r="CU7" s="23"/>
+      <c r="CV7" s="23"/>
+      <c r="CW7" s="23"/>
+      <c r="CX7" s="23"/>
+      <c r="CY7" s="23"/>
+      <c r="CZ7" s="23"/>
+      <c r="DA7" s="23"/>
+      <c r="DB7" s="23"/>
+      <c r="DC7" s="23"/>
+      <c r="DD7" s="23"/>
+      <c r="DE7" s="23"/>
+      <c r="DF7" s="23"/>
+      <c r="DG7" s="23"/>
+      <c r="DH7" s="23"/>
+      <c r="DI7" s="23"/>
+      <c r="DJ7" s="23"/>
+      <c r="DK7" s="23"/>
+      <c r="DL7" s="23"/>
+    </row>
+    <row r="8" spans="1:129" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="5" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
-      <c r="AB7" s="5"/>
-      <c r="AC7" s="5"/>
-      <c r="AD7" s="5"/>
-      <c r="AE7" s="5"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="5"/>
-      <c r="AH7" s="5"/>
-      <c r="AI7" s="5"/>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="5"/>
-      <c r="AL7" s="5"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
-      <c r="AZ7" s="5"/>
-      <c r="BA7" s="7" t="s">
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
+      <c r="AI8" s="21"/>
+      <c r="AJ8" s="21"/>
+      <c r="AK8" s="21"/>
+      <c r="AL8" s="21"/>
+      <c r="AM8" s="21"/>
+      <c r="AN8" s="21"/>
+      <c r="AO8" s="21"/>
+      <c r="AP8" s="21"/>
+      <c r="AQ8" s="21"/>
+      <c r="AR8" s="21"/>
+      <c r="AS8" s="21"/>
+      <c r="AT8" s="21"/>
+      <c r="AU8" s="21"/>
+      <c r="AV8" s="21"/>
+      <c r="AW8" s="21"/>
+      <c r="AX8" s="21"/>
+      <c r="AY8" s="21"/>
+      <c r="AZ8" s="21"/>
+      <c r="BA8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="BB7" s="7"/>
-      <c r="BC7" s="7"/>
-      <c r="BD7" s="7"/>
-      <c r="BE7" s="7"/>
-      <c r="BF7" s="7"/>
-      <c r="BG7" s="7"/>
-      <c r="BH7" s="7"/>
-      <c r="BI7" s="7"/>
-      <c r="BJ7" s="7"/>
-      <c r="BK7" s="7"/>
-      <c r="BL7" s="7"/>
-      <c r="BM7" s="7"/>
-      <c r="BN7" s="7"/>
-      <c r="BO7" s="7"/>
-      <c r="BP7" s="7"/>
-      <c r="BQ7" s="5" t="s">
+      <c r="BB8" s="9"/>
+      <c r="BC8" s="9"/>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="9"/>
+      <c r="BK8" s="9"/>
+      <c r="BL8" s="9"/>
+      <c r="BM8" s="9"/>
+      <c r="BN8" s="9"/>
+      <c r="BO8" s="9"/>
+      <c r="BP8" s="9"/>
+      <c r="BQ8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="BR7" s="6"/>
-      <c r="BS7" s="6"/>
-      <c r="BT7" s="6"/>
-      <c r="BU7" s="6"/>
-      <c r="BV7" s="6"/>
-      <c r="BW7" s="6"/>
-      <c r="BX7" s="6"/>
-      <c r="BY7" s="6"/>
-      <c r="BZ7" s="6"/>
-      <c r="CA7" s="6"/>
-      <c r="CB7" s="6"/>
-      <c r="CC7" s="6"/>
-      <c r="CD7" s="6"/>
-      <c r="CE7" s="6"/>
-      <c r="CF7" s="6"/>
-      <c r="CG7" s="6"/>
-      <c r="CH7" s="6"/>
-      <c r="CI7" s="6"/>
-      <c r="CJ7" s="6"/>
-      <c r="CK7" s="6"/>
-      <c r="CL7" s="6"/>
-      <c r="CM7" s="6"/>
-      <c r="CN7" s="6"/>
-      <c r="CO7" s="6"/>
-      <c r="CP7" s="6"/>
-      <c r="CQ7" s="6"/>
-      <c r="CR7" s="6"/>
-      <c r="CS7" s="6"/>
-      <c r="CT7" s="6"/>
-      <c r="CU7" s="6"/>
-      <c r="CV7" s="6"/>
-      <c r="CW7" s="6"/>
-      <c r="CX7" s="6"/>
-      <c r="CY7" s="6"/>
-      <c r="CZ7" s="6"/>
-      <c r="DA7" s="6"/>
-      <c r="DB7" s="6"/>
-      <c r="DC7" s="6"/>
-      <c r="DD7" s="6"/>
-      <c r="DE7" s="6"/>
-      <c r="DF7" s="6"/>
-      <c r="DG7" s="6"/>
-      <c r="DH7" s="6"/>
-      <c r="DI7" s="6"/>
-      <c r="DJ7" s="6"/>
-      <c r="DK7" s="6"/>
-      <c r="DL7" s="6"/>
-      <c r="DM7" s="4" t="s">
+      <c r="BR8" s="22"/>
+      <c r="BS8" s="22"/>
+      <c r="BT8" s="22"/>
+      <c r="BU8" s="22"/>
+      <c r="BV8" s="22"/>
+      <c r="BW8" s="22"/>
+      <c r="BX8" s="22"/>
+      <c r="BY8" s="22"/>
+      <c r="BZ8" s="22"/>
+      <c r="CA8" s="22"/>
+      <c r="CB8" s="22"/>
+      <c r="CC8" s="22"/>
+      <c r="CD8" s="22"/>
+      <c r="CE8" s="22"/>
+      <c r="CF8" s="22"/>
+      <c r="CG8" s="22"/>
+      <c r="CH8" s="22"/>
+      <c r="CI8" s="22"/>
+      <c r="CJ8" s="22"/>
+      <c r="CK8" s="22"/>
+      <c r="CL8" s="22"/>
+      <c r="CM8" s="22"/>
+      <c r="CN8" s="22"/>
+      <c r="CO8" s="22"/>
+      <c r="CP8" s="22"/>
+      <c r="CQ8" s="22"/>
+      <c r="CR8" s="22"/>
+      <c r="CS8" s="22"/>
+      <c r="CT8" s="22"/>
+      <c r="CU8" s="22"/>
+      <c r="CV8" s="22"/>
+      <c r="CW8" s="22"/>
+      <c r="CX8" s="22"/>
+      <c r="CY8" s="22"/>
+      <c r="CZ8" s="22"/>
+      <c r="DA8" s="22"/>
+      <c r="DB8" s="22"/>
+      <c r="DC8" s="22"/>
+      <c r="DD8" s="22"/>
+      <c r="DE8" s="22"/>
+      <c r="DF8" s="22"/>
+      <c r="DG8" s="22"/>
+      <c r="DH8" s="22"/>
+      <c r="DI8" s="22"/>
+      <c r="DJ8" s="22"/>
+      <c r="DK8" s="22"/>
+      <c r="DL8" s="22"/>
+      <c r="DM8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:129" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+    <row r="9" spans="1:129" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
-    <row r="10" spans="1:129" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+    <row r="11" spans="1:129" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="7" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="23" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
-      <c r="AA10" s="24"/>
-      <c r="AB10" s="25"/>
-      <c r="AC10" s="23" t="s">
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="23" t="s">
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+      <c r="AG11" s="6"/>
+      <c r="AH11" s="6"/>
+      <c r="AI11" s="6"/>
+      <c r="AJ11" s="7"/>
+      <c r="AK11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="25"/>
-      <c r="AS10" s="23" t="s">
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
+      <c r="AP11" s="6"/>
+      <c r="AQ11" s="6"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="AT10" s="24"/>
-      <c r="AU10" s="24"/>
-      <c r="AV10" s="24"/>
-      <c r="AW10" s="24"/>
-      <c r="AX10" s="24"/>
-      <c r="AY10" s="24"/>
-      <c r="AZ10" s="25"/>
-      <c r="BA10" s="7" t="s">
+      <c r="AT11" s="6"/>
+      <c r="AU11" s="6"/>
+      <c r="AV11" s="6"/>
+      <c r="AW11" s="6"/>
+      <c r="AX11" s="6"/>
+      <c r="AY11" s="6"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="BB10" s="7"/>
-      <c r="BC10" s="7"/>
-      <c r="BD10" s="7"/>
-      <c r="BE10" s="7"/>
-      <c r="BF10" s="7"/>
-      <c r="BG10" s="7"/>
-      <c r="BH10" s="7"/>
-      <c r="BI10" s="7"/>
-      <c r="BJ10" s="7"/>
-      <c r="BK10" s="7"/>
-      <c r="BL10" s="7"/>
-      <c r="BM10" s="7"/>
-      <c r="BN10" s="7"/>
-      <c r="BO10" s="7"/>
-      <c r="BP10" s="7"/>
-      <c r="BQ10" s="23" t="s">
+      <c r="BB11" s="9"/>
+      <c r="BC11" s="9"/>
+      <c r="BD11" s="9"/>
+      <c r="BE11" s="9"/>
+      <c r="BF11" s="9"/>
+      <c r="BG11" s="9"/>
+      <c r="BH11" s="9"/>
+      <c r="BI11" s="9"/>
+      <c r="BJ11" s="9"/>
+      <c r="BK11" s="9"/>
+      <c r="BL11" s="9"/>
+      <c r="BM11" s="9"/>
+      <c r="BN11" s="9"/>
+      <c r="BO11" s="9"/>
+      <c r="BP11" s="9"/>
+      <c r="BQ11" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="BR10" s="24"/>
-      <c r="BS10" s="24"/>
-      <c r="BT10" s="24"/>
-      <c r="BU10" s="24"/>
-      <c r="BV10" s="24"/>
-      <c r="BW10" s="24"/>
-      <c r="BX10" s="25"/>
-      <c r="BY10" s="23" t="s">
+      <c r="BR11" s="6"/>
+      <c r="BS11" s="6"/>
+      <c r="BT11" s="6"/>
+      <c r="BU11" s="6"/>
+      <c r="BV11" s="6"/>
+      <c r="BW11" s="6"/>
+      <c r="BX11" s="7"/>
+      <c r="BY11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="BZ10" s="24"/>
-      <c r="CA10" s="24"/>
-      <c r="CB10" s="24"/>
-      <c r="CC10" s="24"/>
-      <c r="CD10" s="24"/>
-      <c r="CE10" s="24"/>
-      <c r="CF10" s="25"/>
-      <c r="CG10" s="7" t="s">
+      <c r="BZ11" s="6"/>
+      <c r="CA11" s="6"/>
+      <c r="CB11" s="6"/>
+      <c r="CC11" s="6"/>
+      <c r="CD11" s="6"/>
+      <c r="CE11" s="6"/>
+      <c r="CF11" s="7"/>
+      <c r="CG11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="CH10" s="7"/>
-      <c r="CI10" s="7"/>
-      <c r="CJ10" s="7"/>
-      <c r="CK10" s="7"/>
-      <c r="CL10" s="7"/>
-      <c r="CM10" s="7"/>
-      <c r="CN10" s="7"/>
-      <c r="CO10" s="7"/>
-      <c r="CP10" s="7"/>
-      <c r="CQ10" s="7"/>
-      <c r="CR10" s="7"/>
-      <c r="CS10" s="7"/>
-      <c r="CT10" s="7"/>
-      <c r="CU10" s="7"/>
-      <c r="CV10" s="7"/>
-      <c r="CW10" s="7" t="s">
+      <c r="CH11" s="9"/>
+      <c r="CI11" s="9"/>
+      <c r="CJ11" s="9"/>
+      <c r="CK11" s="9"/>
+      <c r="CL11" s="9"/>
+      <c r="CM11" s="9"/>
+      <c r="CN11" s="9"/>
+      <c r="CO11" s="9"/>
+      <c r="CP11" s="9"/>
+      <c r="CQ11" s="9"/>
+      <c r="CR11" s="9"/>
+      <c r="CS11" s="9"/>
+      <c r="CT11" s="9"/>
+      <c r="CU11" s="9"/>
+      <c r="CV11" s="9"/>
+      <c r="CW11" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="CX10" s="7"/>
-      <c r="CY10" s="7"/>
-      <c r="CZ10" s="7"/>
-      <c r="DA10" s="7"/>
-      <c r="DB10" s="7"/>
-      <c r="DC10" s="7"/>
-      <c r="DD10" s="7"/>
-      <c r="DE10" s="7"/>
-      <c r="DF10" s="7"/>
-      <c r="DG10" s="7"/>
-      <c r="DH10" s="7"/>
-      <c r="DI10" s="7"/>
-      <c r="DJ10" s="7"/>
-      <c r="DK10" s="7"/>
-      <c r="DL10" s="7"/>
-      <c r="DM10" s="23" t="s">
+      <c r="CX11" s="9"/>
+      <c r="CY11" s="9"/>
+      <c r="CZ11" s="9"/>
+      <c r="DA11" s="9"/>
+      <c r="DB11" s="9"/>
+      <c r="DC11" s="9"/>
+      <c r="DD11" s="9"/>
+      <c r="DE11" s="9"/>
+      <c r="DF11" s="9"/>
+      <c r="DG11" s="9"/>
+      <c r="DH11" s="9"/>
+      <c r="DI11" s="9"/>
+      <c r="DJ11" s="9"/>
+      <c r="DK11" s="9"/>
+      <c r="DL11" s="9"/>
+      <c r="DM11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="DN10" s="24"/>
-      <c r="DO10" s="24"/>
-      <c r="DP10" s="25"/>
-      <c r="DQ10" s="23" t="s">
+      <c r="DN11" s="6"/>
+      <c r="DO11" s="6"/>
+      <c r="DP11" s="7"/>
+      <c r="DQ11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="DR10" s="24"/>
-      <c r="DS10" s="24"/>
-      <c r="DT10" s="25"/>
+      <c r="DR11" s="6"/>
+      <c r="DS11" s="6"/>
+      <c r="DT11" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="58">
-    <mergeCell ref="DQ10:DT10"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="CG10:CV10"/>
-    <mergeCell ref="CW10:DL10"/>
-    <mergeCell ref="U10:AB10"/>
-    <mergeCell ref="AC10:AJ10"/>
-    <mergeCell ref="AK10:AR10"/>
-    <mergeCell ref="AS10:AZ10"/>
-    <mergeCell ref="BQ10:BX10"/>
-    <mergeCell ref="BY10:CF10"/>
-    <mergeCell ref="DM10:DP10"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:T10"/>
-    <mergeCell ref="BA10:BP10"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="BA7:BP7"/>
-    <mergeCell ref="DN2:DO2"/>
+  <mergeCells count="62">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:T2"/>
+    <mergeCell ref="U2:AJ2"/>
+    <mergeCell ref="CW2:DL2"/>
+    <mergeCell ref="E8:AZ8"/>
+    <mergeCell ref="BQ8:DL8"/>
+    <mergeCell ref="E6:T6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:T7"/>
+    <mergeCell ref="U6:AJ6"/>
+    <mergeCell ref="U7:AJ7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="CG6:DL6"/>
+    <mergeCell ref="CG7:DL7"/>
+    <mergeCell ref="AK6:AZ6"/>
+    <mergeCell ref="AK7:AZ7"/>
+    <mergeCell ref="BQ6:CF6"/>
+    <mergeCell ref="BQ7:CF7"/>
+    <mergeCell ref="BA6:BP6"/>
+    <mergeCell ref="BA7:BP7"/>
+    <mergeCell ref="CW3:DL3"/>
+    <mergeCell ref="DN4:DO4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:T5"/>
+    <mergeCell ref="AK4:AZ4"/>
+    <mergeCell ref="U5:AJ5"/>
+    <mergeCell ref="BA5:BP5"/>
+    <mergeCell ref="CW5:DL5"/>
+    <mergeCell ref="AK5:AZ5"/>
+    <mergeCell ref="BQ5:CF5"/>
+    <mergeCell ref="CG5:CV5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="BA8:BP8"/>
+    <mergeCell ref="DN3:DO3"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:T3"/>
+    <mergeCell ref="E4:T4"/>
+    <mergeCell ref="U4:AJ4"/>
+    <mergeCell ref="BA4:BP4"/>
+    <mergeCell ref="BQ4:CF4"/>
+    <mergeCell ref="CG4:CV4"/>
+    <mergeCell ref="CW4:DL4"/>
     <mergeCell ref="U3:AJ3"/>
+    <mergeCell ref="AK3:AZ3"/>
     <mergeCell ref="BA3:BP3"/>
     <mergeCell ref="BQ3:CF3"/>
     <mergeCell ref="CG3:CV3"/>
-    <mergeCell ref="CW3:DL3"/>
-    <mergeCell ref="U2:AJ2"/>
-    <mergeCell ref="AK2:AZ2"/>
-    <mergeCell ref="BA2:BP2"/>
-    <mergeCell ref="BQ2:CF2"/>
-    <mergeCell ref="CG2:CV2"/>
-    <mergeCell ref="CW2:DL2"/>
-    <mergeCell ref="DN3:DO3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:T4"/>
-    <mergeCell ref="AK3:AZ3"/>
-    <mergeCell ref="U4:AJ4"/>
-    <mergeCell ref="BA4:BP4"/>
-    <mergeCell ref="CW4:DL4"/>
-    <mergeCell ref="AK4:AZ4"/>
-    <mergeCell ref="BQ4:CF4"/>
-    <mergeCell ref="CG4:CV4"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E7:AZ7"/>
-    <mergeCell ref="BQ7:DL7"/>
-    <mergeCell ref="E5:T5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:T6"/>
-    <mergeCell ref="U5:AJ5"/>
-    <mergeCell ref="U6:AJ6"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="CG5:DL5"/>
-    <mergeCell ref="CG6:DL6"/>
-    <mergeCell ref="AK5:AZ5"/>
-    <mergeCell ref="AK6:AZ6"/>
-    <mergeCell ref="BQ5:CF5"/>
-    <mergeCell ref="BQ6:CF6"/>
-    <mergeCell ref="BA5:BP5"/>
-    <mergeCell ref="BA6:BP6"/>
+    <mergeCell ref="DQ11:DT11"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="CG11:CV11"/>
+    <mergeCell ref="CW11:DL11"/>
+    <mergeCell ref="U11:AB11"/>
+    <mergeCell ref="AC11:AJ11"/>
+    <mergeCell ref="AK11:AR11"/>
+    <mergeCell ref="AS11:AZ11"/>
+    <mergeCell ref="BQ11:BX11"/>
+    <mergeCell ref="BY11:CF11"/>
+    <mergeCell ref="DM11:DP11"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:T11"/>
+    <mergeCell ref="BA11:BP11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/指令集V1.xlsx
+++ b/doc/指令集V1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\chip_simulator\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30C6C47-7E3C-494A-B9DB-9AE9794EEFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B9F5D8-9B3F-45AF-9A5E-5AF1C9DB74CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>左矩阵基地址</t>
   </si>
@@ -181,7 +181,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>整体长度</t>
+    <t>单个长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batch_size</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,10 +676,10 @@
   <dimension ref="A1:DY11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="CM2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U2" sqref="U2:AJ2"/>
+      <selection pane="bottomRight" activeCell="AK2" sqref="AK2:AZ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1121,6 +1125,24 @@
       <c r="AH2" s="24"/>
       <c r="AI2" s="24"/>
       <c r="AJ2" s="24"/>
+      <c r="AK2" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL2" s="24"/>
+      <c r="AM2" s="24"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+      <c r="AR2" s="24"/>
+      <c r="AS2" s="24"/>
+      <c r="AT2" s="24"/>
+      <c r="AU2" s="24"/>
+      <c r="AV2" s="24"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="24"/>
+      <c r="AZ2" s="24"/>
       <c r="CW2" s="24" t="s">
         <v>6</v>
       </c>
@@ -2105,11 +2127,12 @@
       <c r="DT11" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="63">
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:T2"/>
     <mergeCell ref="U2:AJ2"/>
     <mergeCell ref="CW2:DL2"/>
+    <mergeCell ref="AK2:AZ2"/>
     <mergeCell ref="E8:AZ8"/>
     <mergeCell ref="BQ8:DL8"/>
     <mergeCell ref="E6:T6"/>
